--- a/SCH-STH/Impact assessments/Tanzania/2024/tz_sch_sth_impact_202405_3_kato_katz.xlsx
+++ b/SCH-STH/Impact assessments/Tanzania/2024/tz_sch_sth_impact_202405_3_kato_katz.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Tanzania\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Tanzania\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A7C800-DD1B-458B-A08A-DCA681559EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBF74A1-0A63-4130-96FD-B2B4E0503D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -424,15 +424,6 @@
     <t>${k_add_result} = 'Yes'</t>
   </si>
   <si>
-    <t>(2024 Jan) - 3. SCH/STH - Kato Katz V4</t>
-  </si>
-  <si>
-    <t>tz_sch_sth_impact_202311_3_kato_katz_v4</t>
-  </si>
-  <si>
-    <t>tz_k_202401_v4</t>
-  </si>
-  <si>
     <t>note</t>
   </si>
   <si>
@@ -482,6 +473,15 @@
   </si>
   <si>
     <t>${k_other_eggs} = 'Yes'</t>
+  </si>
+  <si>
+    <t>tz_sch_sth_impact_2405_3_kato_katz</t>
+  </si>
+  <si>
+    <t>(2024 May) - 3. SCH/STH - Kato Katz V4</t>
+  </si>
+  <si>
+    <t>tz_st_k_2405</t>
   </si>
 </sst>
 </file>
@@ -675,7 +675,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -717,11 +717,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -766,7 +762,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1149,20 +1145,20 @@
   <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K36" sqref="K36"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="19.625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="21.125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="47.5" style="35" customWidth="1"/>
+    <col min="1" max="1" width="19.625" style="33" customWidth="1"/>
+    <col min="2" max="2" width="21.125" style="33" customWidth="1"/>
+    <col min="3" max="3" width="47.5" style="33" customWidth="1"/>
     <col min="4" max="6" width="47.375" style="13" customWidth="1"/>
     <col min="7" max="7" width="12.625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="16.875" style="35" customWidth="1"/>
+    <col min="8" max="8" width="16.875" style="33" customWidth="1"/>
     <col min="9" max="10" width="29.5" style="13" customWidth="1"/>
     <col min="11" max="11" width="16" style="13" customWidth="1"/>
     <col min="12" max="12" width="22.125" style="13" customWidth="1"/>
@@ -1226,36 +1222,36 @@
       <c r="A2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="45" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20" t="s">
+      <c r="G2" s="18"/>
+      <c r="H2" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="45" t="s">
+      <c r="J2" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20" t="s">
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
     </row>
     <row r="3" spans="1:16" s="12" customFormat="1">
       <c r="A3" s="14" t="s">
@@ -1268,150 +1264,150 @@
         <v>45</v>
       </c>
       <c r="D3" s="15"/>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
       <c r="I3" s="15"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="25"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="23"/>
       <c r="L3" s="14"/>
       <c r="M3" s="14" t="s">
         <v>10</v>
       </c>
       <c r="N3" s="14"/>
-      <c r="O3" s="25"/>
-    </row>
-    <row r="4" spans="1:16" s="24" customFormat="1">
+      <c r="O3" s="23"/>
+    </row>
+    <row r="4" spans="1:16" s="22" customFormat="1">
       <c r="A4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="47" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="F4" s="47"/>
+      <c r="F4" s="45"/>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="47"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="45"/>
       <c r="K4" s="16"/>
       <c r="L4" s="16"/>
       <c r="M4" s="16" t="s">
         <v>10</v>
       </c>
       <c r="N4" s="16"/>
-      <c r="O4" s="26"/>
-    </row>
-    <row r="5" spans="1:16" s="24" customFormat="1">
+      <c r="O4" s="24"/>
+    </row>
+    <row r="5" spans="1:16" s="22" customFormat="1">
       <c r="A5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="47" t="s">
+      <c r="D5" s="19"/>
+      <c r="E5" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="F5" s="47"/>
+      <c r="F5" s="45"/>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="47"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="45"/>
       <c r="K5" s="16"/>
       <c r="L5" s="16"/>
       <c r="M5" s="16" t="s">
         <v>10</v>
       </c>
       <c r="N5" s="16"/>
-      <c r="O5" s="26"/>
-    </row>
-    <row r="6" spans="1:16" s="24" customFormat="1">
+      <c r="O5" s="24"/>
+    </row>
+    <row r="6" spans="1:16" s="22" customFormat="1">
       <c r="A6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="47" t="s">
+      <c r="D6" s="19"/>
+      <c r="E6" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="F6" s="47"/>
+      <c r="F6" s="45"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="47"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="45"/>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
       <c r="M6" s="16" t="s">
         <v>10</v>
       </c>
       <c r="N6" s="16"/>
-      <c r="O6" s="26"/>
-    </row>
-    <row r="7" spans="1:16" s="24" customFormat="1">
+      <c r="O6" s="24"/>
+    </row>
+    <row r="7" spans="1:16" s="22" customFormat="1">
       <c r="A7" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="47"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="45"/>
       <c r="K7" s="16"/>
       <c r="L7" s="16" t="s">
         <v>79</v>
       </c>
       <c r="M7" s="16"/>
       <c r="N7" s="16"/>
-      <c r="O7" s="26"/>
+      <c r="O7" s="24"/>
     </row>
     <row r="8" spans="1:16" s="12" customFormat="1">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" s="38" t="s">
+      <c r="B8" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38" t="s">
+      <c r="D8" s="36"/>
+      <c r="E8" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
     </row>
     <row r="9" spans="1:16" s="12" customFormat="1">
       <c r="A9" s="14" t="s">
@@ -1422,19 +1418,19 @@
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="46"/>
+      <c r="J9" s="44"/>
       <c r="K9" s="14"/>
       <c r="L9" s="14" t="s">
         <v>61</v>
       </c>
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
-      <c r="O9" s="25"/>
+      <c r="O9" s="23"/>
     </row>
     <row r="10" spans="1:16" s="12" customFormat="1" ht="47.25">
       <c r="A10" s="14" t="s">
@@ -1445,21 +1441,21 @@
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
       <c r="I10" s="15"/>
-      <c r="J10" s="46"/>
+      <c r="J10" s="44"/>
       <c r="K10" s="14"/>
       <c r="L10" s="14" t="s">
         <v>78</v>
       </c>
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
-      <c r="O10" s="25"/>
-    </row>
-    <row r="11" spans="1:16" s="28" customFormat="1">
+      <c r="O10" s="23"/>
+    </row>
+    <row r="11" spans="1:16" s="26" customFormat="1">
       <c r="A11" s="14" t="s">
         <v>123</v>
       </c>
@@ -1470,14 +1466,14 @@
         <v>125</v>
       </c>
       <c r="D11" s="15"/>
-      <c r="E11" s="46" t="s">
+      <c r="E11" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="F11" s="46"/>
+      <c r="F11" s="44"/>
       <c r="G11" s="14"/>
       <c r="H11" s="16"/>
       <c r="I11" s="15"/>
-      <c r="J11" s="46"/>
+      <c r="J11" s="44"/>
       <c r="K11" s="16"/>
       <c r="L11" s="14"/>
       <c r="M11" s="16" t="s">
@@ -1486,7 +1482,7 @@
       <c r="N11" s="16"/>
       <c r="O11" s="16"/>
     </row>
-    <row r="12" spans="1:16" s="28" customFormat="1" ht="31.5">
+    <row r="12" spans="1:16" s="26" customFormat="1" ht="31.5">
       <c r="A12" s="14" t="s">
         <v>13</v>
       </c>
@@ -1497,10 +1493,10 @@
         <v>120</v>
       </c>
       <c r="D12" s="15"/>
-      <c r="E12" s="46" t="s">
+      <c r="E12" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="F12" s="46"/>
+      <c r="F12" s="44"/>
       <c r="G12" s="14"/>
       <c r="H12" s="16" t="s">
         <v>77</v>
@@ -1508,7 +1504,7 @@
       <c r="I12" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="J12" s="46" t="s">
+      <c r="J12" s="44" t="s">
         <v>111</v>
       </c>
       <c r="K12" s="16" t="s">
@@ -1522,819 +1518,819 @@
       <c r="O12" s="16"/>
     </row>
     <row r="13" spans="1:16" s="12" customFormat="1" ht="31.5">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="45" t="s">
+      <c r="D13" s="20"/>
+      <c r="E13" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="45"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="48"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="46"/>
       <c r="K13" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="L13" s="29"/>
-      <c r="M13" s="20" t="s">
+      <c r="L13" s="27"/>
+      <c r="M13" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
     </row>
     <row r="14" spans="1:16" s="12" customFormat="1" ht="31.5">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="45" t="s">
+      <c r="D14" s="20"/>
+      <c r="E14" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="45"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="48"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="46"/>
       <c r="K14" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="L14" s="29"/>
-      <c r="M14" s="20" t="s">
+      <c r="L14" s="27"/>
+      <c r="M14" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
     </row>
     <row r="15" spans="1:16" s="12" customFormat="1" ht="31.5">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="48"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="46"/>
       <c r="K15" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="L15" s="29" t="s">
+      <c r="L15" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="M15" s="20"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
     </row>
     <row r="16" spans="1:16" s="12" customFormat="1" ht="31.5">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="48"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="46"/>
       <c r="K16" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="L16" s="29" t="s">
+      <c r="L16" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="M16" s="20"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
     </row>
     <row r="17" spans="1:15" s="12" customFormat="1" ht="31.5">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="48"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="46"/>
       <c r="K17" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="L17" s="29" t="s">
+      <c r="L17" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="M17" s="20"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
     </row>
     <row r="18" spans="1:15" s="12" customFormat="1" ht="31.5">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="45" t="s">
+      <c r="D18" s="20"/>
+      <c r="E18" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="F18" s="45"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="48"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="46"/>
       <c r="K18" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="L18" s="29"/>
-      <c r="M18" s="20" t="s">
+      <c r="L18" s="27"/>
+      <c r="M18" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
     </row>
     <row r="19" spans="1:15" s="12" customFormat="1" ht="31.5">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="45" t="s">
+      <c r="D19" s="20"/>
+      <c r="E19" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="F19" s="45"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="48"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="46"/>
       <c r="K19" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="L19" s="29"/>
-      <c r="M19" s="20" t="s">
+      <c r="L19" s="27"/>
+      <c r="M19" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
     </row>
     <row r="20" spans="1:15" s="12" customFormat="1" ht="31.5">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="48"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="46"/>
       <c r="K20" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="L20" s="29" t="s">
+      <c r="L20" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="M20" s="20"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
     </row>
     <row r="21" spans="1:15" s="12" customFormat="1" ht="31.5">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="48"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="46"/>
       <c r="K21" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="L21" s="29" t="s">
+      <c r="L21" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="M21" s="20"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
     </row>
     <row r="22" spans="1:15" s="12" customFormat="1" ht="31.5">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="48"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="46"/>
       <c r="K22" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="L22" s="29" t="s">
+      <c r="L22" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="M22" s="20"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
     </row>
     <row r="23" spans="1:15" s="12" customFormat="1" ht="31.5">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="49" t="s">
+      <c r="D23" s="31"/>
+      <c r="E23" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="F23" s="49"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="48"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="46"/>
       <c r="K23" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="L23" s="29"/>
-      <c r="M23" s="20" t="s">
+      <c r="L23" s="27"/>
+      <c r="M23" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
     </row>
     <row r="24" spans="1:15" s="12" customFormat="1" ht="31.5">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="49" t="s">
+      <c r="D24" s="31"/>
+      <c r="E24" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="F24" s="49"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="48"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="46"/>
       <c r="K24" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="L24" s="29"/>
-      <c r="M24" s="20" t="s">
+      <c r="L24" s="27"/>
+      <c r="M24" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
     </row>
     <row r="25" spans="1:15" s="12" customFormat="1" ht="31.5">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="48"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="46"/>
       <c r="K25" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="L25" s="29" t="s">
+      <c r="L25" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="M25" s="20"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
     </row>
     <row r="26" spans="1:15" s="12" customFormat="1" ht="31.5">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="48"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="46"/>
       <c r="K26" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="L26" s="29" t="s">
+      <c r="L26" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="M26" s="20"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
     </row>
     <row r="27" spans="1:15" s="12" customFormat="1" ht="31.5">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="48"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="46"/>
       <c r="K27" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="L27" s="29" t="s">
+      <c r="L27" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="M27" s="20"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
     </row>
     <row r="28" spans="1:15" s="12" customFormat="1" ht="31.5">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="45" t="s">
+      <c r="D28" s="20"/>
+      <c r="E28" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="F28" s="45"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="48"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="46"/>
       <c r="K28" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="L28" s="29"/>
-      <c r="M28" s="20" t="s">
+      <c r="L28" s="27"/>
+      <c r="M28" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
     </row>
     <row r="29" spans="1:15" s="12" customFormat="1" ht="31.5">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="45" t="s">
+      <c r="D29" s="20"/>
+      <c r="E29" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="F29" s="45"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="48"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="46"/>
       <c r="K29" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="L29" s="29"/>
-      <c r="M29" s="20" t="s">
+      <c r="L29" s="27"/>
+      <c r="M29" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
     </row>
     <row r="30" spans="1:15" s="12" customFormat="1" ht="31.5">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="48"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="46"/>
       <c r="K30" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="L30" s="29" t="s">
+      <c r="L30" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="M30" s="20"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27"/>
     </row>
     <row r="31" spans="1:15" s="12" customFormat="1" ht="31.5">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="48"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="46"/>
       <c r="K31" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="L31" s="29" t="s">
+      <c r="L31" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="M31" s="20"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
     </row>
     <row r="32" spans="1:15" s="12" customFormat="1" ht="31.5">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="48"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="46"/>
       <c r="K32" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="L32" s="29" t="s">
+      <c r="L32" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="M32" s="20"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27"/>
     </row>
     <row r="33" spans="1:15" s="12" customFormat="1" ht="31.5">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="33"/>
-      <c r="E33" s="49" t="s">
+      <c r="D33" s="31"/>
+      <c r="E33" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="F33" s="49"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="48"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="46"/>
       <c r="K33" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="L33" s="29"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
     </row>
     <row r="34" spans="1:15" s="12" customFormat="1" ht="31.5">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="32" t="s">
+      <c r="C34" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="33"/>
-      <c r="E34" s="49" t="s">
+      <c r="D34" s="31"/>
+      <c r="E34" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="F34" s="49"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="48"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="46"/>
       <c r="K34" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="L34" s="29"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="27"/>
     </row>
     <row r="35" spans="1:15" s="12" customFormat="1" ht="31.5">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="D35" s="31"/>
+      <c r="E35" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="B35" s="31" t="s">
+      <c r="F35" s="32"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="L35" s="27"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
+    </row>
+    <row r="36" spans="1:15" s="12" customFormat="1">
+      <c r="A36" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="D35" s="33"/>
-      <c r="E35" s="31" t="s">
+      <c r="B36" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="F35" s="34"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="29" t="s">
+      <c r="C36" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="L35" s="29"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="20"/>
-    </row>
-    <row r="36" spans="1:15" s="12" customFormat="1">
-      <c r="A36" s="20" t="s">
+      <c r="D36" s="31"/>
+      <c r="E36" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="B36" s="31" t="s">
+      <c r="F36" s="32"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="L36" s="27"/>
+      <c r="M36" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
+    </row>
+    <row r="37" spans="1:15" s="12" customFormat="1" ht="31.5">
+      <c r="A37" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C37" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="D36" s="33"/>
-      <c r="E36" s="31" t="s">
+      <c r="D37" s="48"/>
+      <c r="E37" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="F36" s="34"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="L36" s="29"/>
-      <c r="M36" s="20" t="s">
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="L37" s="48"/>
+      <c r="M37" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="N36" s="20"/>
-      <c r="O36" s="20"/>
-    </row>
-    <row r="37" spans="1:15" s="12" customFormat="1" ht="31.5">
-      <c r="A37" s="50" t="s">
+      <c r="N37" s="48"/>
+      <c r="O37" s="48"/>
+    </row>
+    <row r="38" spans="1:15" s="12" customFormat="1" ht="31.5">
+      <c r="A38" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" s="31"/>
+      <c r="E38" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="F38" s="32"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="L38" s="27"/>
+      <c r="M38" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+    </row>
+    <row r="39" spans="1:15" s="12" customFormat="1" ht="31.5">
+      <c r="A39" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D39" s="31"/>
+      <c r="E39" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="F39" s="32"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="L39" s="27"/>
+      <c r="M39" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="C37" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="F37" s="50"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50" t="s">
-        <v>147</v>
-      </c>
-      <c r="L37" s="50"/>
-      <c r="M37" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="N37" s="50"/>
-      <c r="O37" s="50"/>
-    </row>
-    <row r="38" spans="1:15" s="12" customFormat="1" ht="31.5">
-      <c r="A38" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="C38" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="D38" s="33"/>
-      <c r="E38" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="F38" s="34"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="50" t="s">
-        <v>147</v>
-      </c>
-      <c r="L38" s="29"/>
-      <c r="M38" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="N38" s="20"/>
-      <c r="O38" s="20"/>
-    </row>
-    <row r="39" spans="1:15" s="12" customFormat="1" ht="31.5">
-      <c r="A39" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B39" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="C39" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="D39" s="33"/>
-      <c r="E39" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="F39" s="34"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="50" t="s">
-        <v>147</v>
-      </c>
-      <c r="L39" s="29"/>
-      <c r="M39" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="N39" s="20"/>
-      <c r="O39" s="20"/>
-    </row>
-    <row r="40" spans="1:15">
-      <c r="A40" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" s="31" t="s">
+      <c r="B40" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="32" t="s">
+      <c r="C40" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="D40" s="33"/>
-      <c r="E40" s="49" t="s">
+      <c r="D40" s="31"/>
+      <c r="E40" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="F40" s="49"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="49"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="34"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="34"/>
-      <c r="O40" s="34"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="32"/>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="39" t="s">
+      <c r="A41" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="39"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="43"/>
-      <c r="L41" s="42"/>
-      <c r="M41" s="42"/>
-      <c r="N41" s="42"/>
-      <c r="O41" s="42"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
+      <c r="O41" s="40"/>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="32"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="49"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="34"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="34"/>
-      <c r="O42" s="34"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="32"/>
+      <c r="O42" s="32"/>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="31" t="s">
+      <c r="A43" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B43" s="31" t="s">
+      <c r="B43" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="32"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="33"/>
-      <c r="J43" s="49"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="34"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="34"/>
-      <c r="O43" s="34"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="32"/>
+      <c r="O43" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2384,7 +2380,7 @@
       <c r="C2" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="42" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2398,14 +2394,14 @@
       <c r="C3" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="42" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19"/>
+      <c r="A4" s="4"/>
+      <c r="B4"/>
+      <c r="C4" s="17"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3"/>
@@ -3240,13 +3236,13 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:B28">
     <sortCondition ref="A5:A28"/>
   </sortState>
+  <conditionalFormatting sqref="B1:B3">
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B4:B1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B3">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C3">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
@@ -3262,7 +3258,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3287,10 +3283,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="12" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
         <v>75</v>
